--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.732</v>
+        <v>-12.463</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.302</v>
+        <v>-21.557</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,10 +519,10 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.3</v>
+        <v>-13.066</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.762</v>
+        <v>-8.021000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.936000000000002</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.25</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.58</v>
+        <v>-21.04</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.994</v>
+        <v>-21.014</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.372</v>
+        <v>-12.342</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -726,7 +726,7 @@
         <v>-12.35</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.284000000000001</v>
+        <v>-7.613</v>
       </c>
       <c r="E17" t="n">
         <v>8.15</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.178</v>
+        <v>-21.04</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.552</v>
+        <v>-7.897</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-22.082</v>
+        <v>-21.701</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.414</v>
+        <v>-22.05</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
